--- a/宏观经济/eta/美国10年通胀预期Non-Trend_F0.1_月度数据.xlsx
+++ b/宏观经济/eta/美国10年通胀预期Non-Trend_F0.1_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-0.056</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0467</v>
+        <v>-0.0478</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0151</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0202</v>
+        <v>0.0208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0361</v>
+        <v>0.0367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0047</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0433</v>
+        <v>0.0438</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0149</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0381</v>
+        <v>-0.0377</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0207</v>
+        <v>-0.0204</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0168</v>
+        <v>-0.0164</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0491</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0842</v>
+        <v>-0.0838</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.018</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="10">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.014</v>
+        <v>0.0143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0095</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1085</v>
+        <v>0.1087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="12">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0891</v>
+        <v>0.0893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0051</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0037</v>
+        <v>-0.0036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0071</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="14">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.018</v>
+        <v>0.0181</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0104</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="15">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0131</v>
+        <v>-0.013</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0196</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="16">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1874</v>
+        <v>-0.1873</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.043</v>
+        <v>-0.0428</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>-0.1818</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0328</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-0.0155</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02</v>
+        <v>-0.0199</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>-0.0335</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0218</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>0.0466</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0049</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1079</v>
+        <v>0.108</v>
       </c>
       <c r="C21" t="n">
         <v>0.0212</v>
@@ -731,7 +731,7 @@
         <v>-0.0023</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0106</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>-0.0191</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0076</v>
+        <v>-0.0075</v>
       </c>
     </row>
     <row r="25">
